--- a/Results/AMBIENCE.xlsx
+++ b/Results/AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="380">
   <si>
     <t>id</t>
   </si>
@@ -67,9 +67,6 @@
     <t>1232468:1</t>
   </si>
   <si>
-    <t>1280166:4</t>
-  </si>
-  <si>
     <t>1280179:5</t>
   </si>
   <si>
@@ -385,9 +382,6 @@
     <t>the outdoor atmosphere of sitting on the sidewalk watching the world go by 50 feet away on 6th avenue on a cool evening was wonderful.</t>
   </si>
   <si>
-    <t>traditional french decour was pleasant though the hall was rather noisy - the restaurant was full and we had to raise our voices to be able to maintain a conversation.</t>
-  </si>
-  <si>
     <t>the decor is vibrant and eye-pleasing with several semi-private boths on the right side of the dining hall, which are great for a date.</t>
   </si>
   <si>
@@ -700,18 +694,18 @@
     <t>cool</t>
   </si>
   <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
     <t>noisy</t>
   </si>
   <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
     <t>lovely</t>
   </si>
   <si>
@@ -724,7 +718,7 @@
     <t>like</t>
   </si>
   <si>
-    <t>excellentthe</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>romantic</t>
@@ -784,9 +778,6 @@
     <t>best</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>gimmick</t>
   </si>
   <si>
@@ -814,6 +805,9 @@
     <t>makes</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
@@ -838,7 +832,7 @@
     <t>upscale</t>
   </si>
   <si>
-    <t>gorgeous</t>
+    <t>ideal</t>
   </si>
   <si>
     <t>negative</t>
@@ -881,9 +875,6 @@
   </si>
   <si>
     <t>['outdoor', 'atmosphere', 'sitting', 'sidewalk', 'watching', 'world', 'go', '', 'foot', 'away', 'th', 'avenue', 'cool', 'evening', 'wonderful']</t>
-  </si>
-  <si>
-    <t>['traditional', 'french', 'decour', 'pleasant', 'though', 'hall', 'rather', 'noisy', 'restaurant', 'full', 'raise', 'voice', 'able', 'maintain', 'conversation']</t>
   </si>
   <si>
     <t>['decor', 'vibrant', 'eyepleasing', 'several', 'semiprivate', 'boths', 'right', 'side', 'dining', 'hall', 'great', 'date']</t>
@@ -1520,7 +1511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1551,16 +1542,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" t="s">
         <v>275</v>
-      </c>
-      <c r="F2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1571,16 +1562,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" t="s">
         <v>276</v>
-      </c>
-      <c r="F3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1591,16 +1582,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1611,16 +1602,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1631,16 +1622,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1651,16 +1642,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1671,16 +1662,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1691,16 +1682,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1711,16 +1702,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1731,16 +1722,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1751,16 +1742,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1771,16 +1762,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1791,16 +1782,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1811,16 +1802,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1831,16 +1822,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1851,16 +1842,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1871,16 +1862,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1891,16 +1882,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1911,16 +1902,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1931,16 +1922,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1951,16 +1942,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1971,16 +1962,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1991,16 +1982,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2011,16 +2002,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2031,16 +2022,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2051,16 +2042,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2071,16 +2062,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2091,16 +2082,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2111,16 +2102,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="E30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2131,16 +2122,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2151,16 +2142,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2171,16 +2162,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2191,16 +2182,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2211,16 +2202,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2231,16 +2222,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E36" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2251,16 +2242,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2271,13 +2259,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="D38" t="s">
+        <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2288,16 +2279,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2308,16 +2299,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F40" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2328,16 +2319,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2348,16 +2339,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F42" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2368,16 +2359,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E43" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2388,16 +2379,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F44" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2408,16 +2399,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F45" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2428,16 +2419,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2448,16 +2439,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F47" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2468,16 +2459,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="E48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2488,16 +2479,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2508,16 +2499,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2528,16 +2519,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="E51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F51" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2548,16 +2539,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="E52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F52" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2568,16 +2559,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="E53" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2588,16 +2579,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2608,16 +2599,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F55" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2628,16 +2619,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="E56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F56" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2648,16 +2639,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E57" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F57" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2668,16 +2659,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E58" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2688,16 +2679,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E59" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F59" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2708,16 +2699,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="E60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F60" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2728,16 +2719,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="E61" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F61" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2748,16 +2739,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E62" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F62" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2768,16 +2759,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F63" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2788,16 +2779,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F64" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2808,16 +2799,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E65" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F65" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2828,16 +2819,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E66" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F66" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2848,16 +2839,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E67" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F67" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2868,16 +2859,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F68" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2888,16 +2879,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
         <v>234</v>
       </c>
       <c r="E69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F69" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2908,16 +2899,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E70" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2928,16 +2919,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F71" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2948,16 +2939,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E72" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F72" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2968,16 +2959,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="E73" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F73" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2988,16 +2979,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="E74" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F74" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3008,16 +2999,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E75" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F75" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3028,16 +3019,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="E76" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F76" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3048,16 +3039,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="E77" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3068,16 +3059,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E78" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F78" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3088,16 +3079,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F79" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3108,16 +3099,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E80" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F80" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3128,16 +3119,13 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
-      </c>
-      <c r="D81" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="E81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F81" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3148,13 +3136,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="D82" t="s">
+        <v>216</v>
       </c>
       <c r="E82" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F82" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3165,16 +3156,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E83" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F83" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3185,16 +3176,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E84" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F84" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3205,16 +3196,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F85" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3225,16 +3216,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D86" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="E86" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F86" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3245,16 +3236,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="E87" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F87" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3265,16 +3256,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F88" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3285,16 +3276,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="E89" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F89" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3305,16 +3296,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E90" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F90" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3325,16 +3316,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E91" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F91" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3345,16 +3336,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="E92" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F92" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3365,16 +3356,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="E93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F93" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3385,16 +3376,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="E94" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F94" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3405,16 +3396,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="E95" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3425,16 +3416,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F96" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3445,16 +3436,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="E97" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F97" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3465,16 +3456,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="E98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F98" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3485,16 +3476,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E99" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F99" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3505,16 +3496,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E100" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F100" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3525,16 +3516,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="E101" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F101" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3545,16 +3536,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D102" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="E102" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F102" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3565,16 +3556,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D103" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F103" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3585,16 +3576,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D104" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E104" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F104" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3605,16 +3596,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D105" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="E105" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F105" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3625,36 +3616,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D106" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F106" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" t="s">
-        <v>216</v>
-      </c>
-      <c r="D107" t="s">
-        <v>274</v>
-      </c>
-      <c r="E107" t="s">
-        <v>276</v>
-      </c>
-      <c r="F107" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/Results/AMBIENCE.xlsx
+++ b/Results/AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="404">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,9 @@
     <t>preprocessed</t>
   </si>
   <si>
+    <t>1032695:1</t>
+  </si>
+  <si>
     <t>1041457:6</t>
   </si>
   <si>
@@ -46,6 +49,12 @@
     <t>1102681:1</t>
   </si>
   <si>
+    <t>1126814:0</t>
+  </si>
+  <si>
+    <t>1126886:2</t>
+  </si>
+  <si>
     <t>1153034:2</t>
   </si>
   <si>
@@ -58,6 +67,9 @@
     <t>1199480:0</t>
   </si>
   <si>
+    <t>1221938:3</t>
+  </si>
+  <si>
     <t>1225162:0</t>
   </si>
   <si>
@@ -76,7 +88,10 @@
     <t>1289424:4</t>
   </si>
   <si>
-    <t>1308557:1</t>
+    <t>1300636:4</t>
+  </si>
+  <si>
+    <t>1335154:4</t>
   </si>
   <si>
     <t>1335656:2</t>
@@ -97,6 +112,9 @@
     <t>1357554:4</t>
   </si>
   <si>
+    <t>1367358:3</t>
+  </si>
+  <si>
     <t>1380450:2</t>
   </si>
   <si>
@@ -106,6 +124,9 @@
     <t>1390357:2</t>
   </si>
   <si>
+    <t>1394712:0</t>
+  </si>
+  <si>
     <t>1394712:4</t>
   </si>
   <si>
@@ -157,10 +178,7 @@
     <t>1615322:4</t>
   </si>
   <si>
-    <t>1615322:5</t>
-  </si>
-  <si>
-    <t>1623276:0</t>
+    <t>1632445:3</t>
   </si>
   <si>
     <t>1655521:1</t>
@@ -172,6 +190,9 @@
     <t>1661043:4</t>
   </si>
   <si>
+    <t>1661757:2</t>
+  </si>
+  <si>
     <t>1706644:4</t>
   </si>
   <si>
@@ -205,9 +226,6 @@
     <t>475512:3</t>
   </si>
   <si>
-    <t>476473:2</t>
-  </si>
-  <si>
     <t>485966:1</t>
   </si>
   <si>
@@ -250,9 +268,6 @@
     <t>561054:1</t>
   </si>
   <si>
-    <t>561054:3</t>
-  </si>
-  <si>
     <t>626269:2</t>
   </si>
   <si>
@@ -277,6 +292,9 @@
     <t>744478:1</t>
   </si>
   <si>
+    <t>757762:0</t>
+  </si>
+  <si>
     <t>875139:0</t>
   </si>
   <si>
@@ -295,6 +313,9 @@
     <t>TR#3:1</t>
   </si>
   <si>
+    <t>Y#6:3</t>
+  </si>
+  <si>
     <t>TM#3:3</t>
   </si>
   <si>
@@ -304,12 +325,6 @@
     <t>TR#8:6</t>
   </si>
   <si>
-    <t>CLF#1:0</t>
-  </si>
-  <si>
-    <t>Z#11:4</t>
-  </si>
-  <si>
     <t>TR#2:7</t>
   </si>
   <si>
@@ -331,7 +346,7 @@
     <t>Z#5:4</t>
   </si>
   <si>
-    <t>TM#5:4</t>
+    <t>TVU#6:5</t>
   </si>
   <si>
     <t>TFS#5:8</t>
@@ -346,6 +361,9 @@
     <t>CLF#7:0</t>
   </si>
   <si>
+    <t>everything is always cooked to perfection, the service is excellent, the decor cool and understated.</t>
+  </si>
+  <si>
     <t>the decor is night tho...but they really need to clean that vent in the ceiling...its quite un-appetizing, and kills your effort to make this place look sleek and modern.</t>
   </si>
   <si>
@@ -361,6 +379,12 @@
     <t>this tiny restaurant is as cozy as it gets, with that certain parisian flair.</t>
   </si>
   <si>
+    <t>leon is an east village gem: casual but hip, with well prepared basic french bistro fare, good specials, a warm and lively atmosphere.</t>
+  </si>
+  <si>
+    <t>the service is excellent, the decor is great, and the food is delicious and comes in large portions.</t>
+  </si>
+  <si>
     <t>located at the end of a magnificent block.</t>
   </si>
   <si>
@@ -373,6 +397,9 @@
     <t>not sure where the previous reviewer, lonk, dined, but saul is in a great neighborhood and has great food!</t>
   </si>
   <si>
+    <t>downstairs lounge is always a good attraction</t>
+  </si>
+  <si>
     <t>raga's is a romantic, cozy restaurant.</t>
   </si>
   <si>
@@ -391,7 +418,10 @@
     <t>the place's decor and hidden bathrooms made for a good laugh.</t>
   </si>
   <si>
-    <t>it's boring on the inside, and our sushi was pretty below average... the tuna was soggy and the other rolls had no flavor.</t>
+    <t>i highly recommend cafe st. bart's for their food, the ambience and wonderful service.</t>
+  </si>
+  <si>
+    <t>i didn't complain, i liked the atmosphere so much.</t>
   </si>
   <si>
     <t>ambience is so cute and quaint, good for business although we were there on vacation.</t>
@@ -412,6 +442,9 @@
     <t>it's a nice place to relax and have conversation.</t>
   </si>
   <si>
+    <t>ambience is delightful, service impeccable.</t>
+  </si>
+  <si>
     <t>service was also horrible and the ambience is not that great.</t>
   </si>
   <si>
@@ -421,6 +454,9 @@
     <t>i like the ambience, it's very dark and original.</t>
   </si>
   <si>
+    <t>very affordable and excellent ambient!</t>
+  </si>
+  <si>
     <t>however, i think this place is a good hang out spot.</t>
   </si>
   <si>
@@ -472,10 +508,7 @@
     <t>the seats are uncomfortable if you are sitting against the wall on wooden benches.</t>
   </si>
   <si>
-    <t>it's a rather cramped and busy restaurant and it closes early.</t>
-  </si>
-  <si>
-    <t>patroon features a nice cigar bar and has great staff.</t>
+    <t>the service is good and ambience is good for a date or group outing.</t>
   </si>
   <si>
     <t>i almost hesititate to write a review because the atmosphere was so great and i would hate for it too become to crowded.</t>
@@ -487,6 +520,9 @@
     <t>decor is charming.</t>
   </si>
   <si>
+    <t>the ambience was so fun, and the prices were great, on top of the fact that the food was really tasty.</t>
+  </si>
+  <si>
     <t>we ate out in the back patio, which is worth it as it's cool and the music is hear well there.</t>
   </si>
   <si>
@@ -520,9 +556,6 @@
     <t>if you like your music blasted and the system isnt that great and if you want to pay at least 100 dollar bottle minimun then you'll love it here.</t>
   </si>
   <si>
-    <t>great atmoshere and worth every bit.</t>
-  </si>
-  <si>
     <t>the place was quiet and delightful.</t>
   </si>
   <si>
@@ -565,9 +598,6 @@
     <t>when you're sitting in their main dining room (which has a spectacular, hand-painted high ceiling) you'd never know there was a world outside.</t>
   </si>
   <si>
-    <t>i can't wait for summer, when they serve outside on their gigantic patio.</t>
-  </si>
-  <si>
     <t>the design and atmosphere is just as good.</t>
   </si>
   <si>
@@ -592,6 +622,9 @@
     <t>fabulous decor - makes you feel like you're in a trendy manhattan restaurant, very very good food, cheaply-priced, generally friendly staff, and if you're a manhattanite, or spend most of your time in manhattan, rice avenue will make you feel at home.....very soho/village/upper west side minus the expensive prices and pretentious clientele.....all on roosevelt avenue!</t>
   </si>
   <si>
+    <t>baluchi's has solid food and a nice decor at reasonable prices.</t>
+  </si>
+  <si>
     <t>love the scene first off- the place has a character and nice light to it..very fortunate, location wise.</t>
   </si>
   <si>
@@ -610,6 +643,9 @@
     <t>there is something about their atmosphere that makes me come back nearly every week.</t>
   </si>
   <si>
+    <t>in the summer months, the back garden area is really nice.</t>
+  </si>
+  <si>
     <t>the food was good, the place was clean and affordable.</t>
   </si>
   <si>
@@ -619,12 +655,6 @@
     <t>nice view of river and nyc.</t>
   </si>
   <si>
-    <t>a beautifully designed dreamy egyptian restaurant that gets sceney at night.</t>
-  </si>
-  <si>
-    <t>most of the booths allow you to sit next to eachother without looking like 'that' couple.</t>
-  </si>
-  <si>
     <t>oh speaking of bathroom , the mens bathroom was disgusting.</t>
   </si>
   <si>
@@ -646,7 +676,7 @@
     <t>the atmosphere was pretty nice but had a bit lacking, which it tries to make up for with a crazy scheme of mirrors.</t>
   </si>
   <si>
-    <t>the only thing that strikes you is the decor?(not very pleasant).</t>
+    <t>the dj is awesome, i have been there for my birthday and a bunch of other times with friends and i keep going back.</t>
   </si>
   <si>
     <t>yes, the place is classy and beautiful, but they most certainly target the uber whealthy not the common joe that wants to go all out every once in a while.</t>
@@ -661,7 +691,10 @@
     <t>gorgeous place ideal for a romantic dinner</t>
   </si>
   <si>
-    <t>sleek</t>
+    <t>perfection</t>
+  </si>
+  <si>
+    <t>vent</t>
   </si>
   <si>
     <t>nice</t>
@@ -676,6 +709,12 @@
     <t>cozy</t>
   </si>
   <si>
+    <t>lively</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>magnificent</t>
   </si>
   <si>
@@ -688,19 +727,28 @@
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>cool</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>live</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>pretty</t>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>quaint</t>
   </si>
   <si>
     <t>noisy</t>
@@ -712,19 +760,19 @@
     <t>efficiently</t>
   </si>
   <si>
+    <t>delightful</t>
+  </si>
+  <si>
     <t>cute</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>romantic</t>
   </si>
   <si>
-    <t>elegant</t>
+    <t>refreshing</t>
   </si>
   <si>
     <t>crowded</t>
@@ -766,7 +814,7 @@
     <t>perfect</t>
   </si>
   <si>
-    <t>well</t>
+    <t>ghetto</t>
   </si>
   <si>
     <t>blasted</t>
@@ -775,7 +823,13 @@
     <t>quiet</t>
   </si>
   <si>
-    <t>best</t>
+    <t>delightfully</t>
+  </si>
+  <si>
+    <t>reasonable</t>
+  </si>
+  <si>
+    <t>dim</t>
   </si>
   <si>
     <t>gimmick</t>
@@ -784,9 +838,6 @@
     <t>spectacular</t>
   </si>
   <si>
-    <t>gigantic</t>
-  </si>
-  <si>
     <t>italian</t>
   </si>
   <si>
@@ -799,6 +850,9 @@
     <t>comfortable</t>
   </si>
   <si>
+    <t>friendly</t>
+  </si>
+  <si>
     <t>warm</t>
   </si>
   <si>
@@ -808,9 +862,6 @@
     <t>clean</t>
   </si>
   <si>
-    <t>beautifully</t>
-  </si>
-  <si>
     <t>disgusting</t>
   </si>
   <si>
@@ -826,6 +877,12 @@
     <t>mazing</t>
   </si>
   <si>
+    <t>lacking</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>classy</t>
   </si>
   <si>
@@ -835,10 +892,13 @@
     <t>ideal</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>['everything', 'always', 'cooked', 'perfection', 'service', 'excellent', 'decor', 'cool', 'understated']</t>
   </si>
   <si>
     <t>['decor', 'night', 'thobut', 'really', 'need', 'clean', 'vent', 'ceilingits', 'quite', 'unappetizing', 'kill', 'effort', 'make', 'place', 'look', 'sleek', 'modern']</t>
@@ -856,6 +916,12 @@
     <t>['tiny', 'restaurant', 'cozy', 'get', 'certain', 'parisian', 'flair']</t>
   </si>
   <si>
+    <t>['leon', 'east', 'village', 'gem', 'casual', 'hip', 'well', 'prepared', 'basic', 'french', 'bistro', 'fare', 'good', 'special', 'warm', 'lively', 'atmosphere']</t>
+  </si>
+  <si>
+    <t>['service', 'excellent', 'decor', 'great', 'food', 'delicious', 'come', 'large', 'portion']</t>
+  </si>
+  <si>
     <t>['located', 'end', 'magnificent', 'block']</t>
   </si>
   <si>
@@ -868,6 +934,9 @@
     <t>['sure', 'previous', 'reviewer', 'lonk', 'dined', 'saul', 'great', 'neighborhood', 'great', 'food']</t>
   </si>
   <si>
+    <t>['downstairs', 'lounge', 'always', 'good', 'attraction']</t>
+  </si>
+  <si>
     <t>['ragas', 'romantic', 'cozy', 'restaurant']</t>
   </si>
   <si>
@@ -886,7 +955,10 @@
     <t>['place', 'decor', 'hidden', 'bathroom', 'made', 'good', 'laugh']</t>
   </si>
   <si>
-    <t>['boring', 'inside', 'sushi', 'pretty', 'average', 'tuna', 'soggy', 'roll', 'flavor']</t>
+    <t>['highly', 'recommend', 'cafe', 'st', 'bart', 'food', 'ambience', 'wonderful', 'service']</t>
+  </si>
+  <si>
+    <t>['complain', 'liked', 'atmosphere', 'much']</t>
   </si>
   <si>
     <t>['ambience', 'cute', 'quaint', 'good', 'business', 'although', 'vacation']</t>
@@ -907,6 +979,9 @@
     <t>['nice', 'place', 'relax', 'conversation']</t>
   </si>
   <si>
+    <t>['ambience', 'delightful', 'service', 'impeccable']</t>
+  </si>
+  <si>
     <t>['service', 'also', 'horrible', 'ambience', 'great']</t>
   </si>
   <si>
@@ -916,6 +991,9 @@
     <t>['like', 'ambience', 'dark', 'original']</t>
   </si>
   <si>
+    <t>['affordable', 'excellent', 'ambient']</t>
+  </si>
+  <si>
     <t>['however', 'think', 'place', 'good', 'hang', 'spot']</t>
   </si>
   <si>
@@ -967,10 +1045,7 @@
     <t>['seat', 'uncomfortable', 'sitting', 'wall', 'wooden', 'bench']</t>
   </si>
   <si>
-    <t>['rather', 'cramped', 'busy', 'restaurant', 'close', 'early']</t>
-  </si>
-  <si>
-    <t>['patroon', 'feature', 'nice', 'cigar', 'bar', 'great', 'staff']</t>
+    <t>['service', 'good', 'ambience', 'good', 'date', 'group', 'outing']</t>
   </si>
   <si>
     <t>['almost', 'hesititate', 'write', 'review', 'atmosphere', 'great', 'would', 'hate', 'become', 'crowded']</t>
@@ -982,6 +1057,9 @@
     <t>['decor', 'charming']</t>
   </si>
   <si>
+    <t>['ambience', 'fun', 'price', 'great', 'top', 'fact', 'food', 'really', 'tasty']</t>
+  </si>
+  <si>
     <t>['ate', 'back', 'patio', 'worth', 'cool', 'music', 'hear', 'well']</t>
   </si>
   <si>
@@ -1015,9 +1093,6 @@
     <t>['like', 'music', 'blasted', 'system', 'great', 'want', 'pay', 'least', '', 'dollar', 'bottle', 'minimun', 'love']</t>
   </si>
   <si>
-    <t>['great', 'atmoshere', 'worth', 'every', 'bit']</t>
-  </si>
-  <si>
     <t>['place', 'quiet', 'delightful']</t>
   </si>
   <si>
@@ -1060,9 +1135,6 @@
     <t>['sitting', 'main', 'dining', 'room', 'spectacular', 'handpainted', 'high', 'ceiling', 'never', 'know', 'world', 'outside']</t>
   </si>
   <si>
-    <t>['cant', 'wait', 'summer', 'serve', 'outside', 'gigantic', 'patio']</t>
-  </si>
-  <si>
     <t>['design', 'atmosphere', 'good']</t>
   </si>
   <si>
@@ -1087,6 +1159,9 @@
     <t>['fabulous', 'decor', 'make', 'feel', 'like', 'trendy', 'manhattan', 'restaurant', 'good', 'food', 'cheaplypriced', 'generally', 'friendly', 'staff', 'manhattanite', 'spend', 'time', 'manhattan', 'rice', 'avenue', 'make', 'feel', 'homevery', 'sohovillageupper', 'west', 'side', 'minus', 'expensive', 'price', 'pretentious', 'clienteleall', 'roosevelt', 'avenue']</t>
   </si>
   <si>
+    <t>['baluchi', 'solid', 'food', 'nice', 'decor', 'reasonable', 'price']</t>
+  </si>
+  <si>
     <t>['love', 'scene', 'first', 'place', 'character', 'nice', 'light', 'itvery', 'fortunate', 'location', 'wise']</t>
   </si>
   <si>
@@ -1105,6 +1180,9 @@
     <t>['something', 'atmosphere', 'make', 'come', 'back', 'nearly', 'every', 'week']</t>
   </si>
   <si>
+    <t>['summer', 'month', 'back', 'garden', 'area', 'really', 'nice']</t>
+  </si>
+  <si>
     <t>['food', 'good', 'place', 'clean', 'affordable']</t>
   </si>
   <si>
@@ -1114,12 +1192,6 @@
     <t>['nice', 'view', 'river', 'nyc']</t>
   </si>
   <si>
-    <t>['beautifully', 'designed', 'dreamy', 'egyptian', 'restaurant', 'get', 'sceney', 'night']</t>
-  </si>
-  <si>
-    <t>['booth', 'allow', 'sit', 'next', 'eachother', 'without', 'looking', 'like', 'couple']</t>
-  </si>
-  <si>
     <t>['oh', 'speaking', 'bathroom', 'men', 'bathroom', 'disgusting']</t>
   </si>
   <si>
@@ -1141,7 +1213,7 @@
     <t>['atmosphere', 'pretty', 'nice', 'bit', 'lacking', 'try', 'make', 'crazy', 'scheme', 'mirror']</t>
   </si>
   <si>
-    <t>['thing', 'strike', 'decornot', 'pleasant']</t>
+    <t>['dj', 'awesome', 'birthday', 'bunch', 'time', 'friend', 'keep', 'going', 'back']</t>
   </si>
   <si>
     <t>['yes', 'place', 'classy', 'beautiful', 'certainly', 'target', 'uber', 'whealthy', 'common', 'joe', 'want', 'go', 'every']</t>
@@ -1511,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1542,16 +1614,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1562,16 +1634,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1582,16 +1654,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1602,16 +1674,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1622,16 +1694,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1642,16 +1714,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1662,16 +1734,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1682,16 +1754,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1702,16 +1774,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1722,16 +1794,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1742,16 +1814,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F12" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1762,16 +1834,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1782,16 +1854,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F14" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1802,16 +1874,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F15" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1822,16 +1894,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F16" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1842,16 +1914,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F17" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1862,16 +1934,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1882,16 +1954,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E19" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F19" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1902,16 +1974,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1922,16 +1994,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1942,16 +2014,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1962,16 +2034,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F23" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1982,16 +2054,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2002,16 +2074,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F25" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2022,16 +2094,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F26" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2042,16 +2114,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F27" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2062,16 +2134,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E28" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F28" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2082,16 +2154,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E29" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F29" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2102,16 +2174,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F30" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2122,16 +2194,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E31" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F31" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2142,16 +2214,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F32" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2162,16 +2234,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E33" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2182,16 +2254,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E34" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2202,16 +2274,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E35" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2222,16 +2294,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F36" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2242,13 +2314,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>227</v>
       </c>
       <c r="E37" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F37" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2259,16 +2334,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2279,16 +2354,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2299,16 +2374,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E40" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F40" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2319,16 +2394,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="E41" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F41" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2339,16 +2414,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F42" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2359,16 +2434,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E43" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F43" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2379,16 +2454,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2399,16 +2471,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E45" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F45" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2419,16 +2491,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E46" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F46" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2439,16 +2511,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F47" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2459,16 +2531,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F48" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2479,16 +2551,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E49" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F49" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2499,16 +2571,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="E50" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F50" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2519,16 +2591,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E51" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F51" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2539,16 +2611,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F52" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2559,16 +2631,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E53" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F53" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2579,16 +2651,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E54" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F54" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2599,16 +2671,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F55" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2619,16 +2691,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="E56" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F56" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2639,16 +2711,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F57" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2659,16 +2731,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E58" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F58" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2679,16 +2751,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="E59" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F59" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2699,16 +2771,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="E60" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F60" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2719,16 +2791,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E61" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F61" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2739,16 +2811,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E62" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F62" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2759,16 +2831,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E63" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F63" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2779,16 +2851,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="E64" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F64" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2799,16 +2871,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="E65" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2819,16 +2891,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E66" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F66" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2839,16 +2911,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="E67" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F67" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2859,16 +2931,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D68" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="E68" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F68" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2879,16 +2951,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E69" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F69" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2899,16 +2971,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="E70" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F70" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2919,16 +2991,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E71" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F71" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2939,16 +3011,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E72" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F72" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2959,16 +3031,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="E73" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F73" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2979,16 +3051,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D74" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E74" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F74" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2999,16 +3071,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E75" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F75" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3019,16 +3091,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E76" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F76" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3039,16 +3111,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D77" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F77" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3059,16 +3131,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E78" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F78" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3079,16 +3151,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E79" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F79" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3099,16 +3171,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E80" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F80" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3119,13 +3191,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>194</v>
+      </c>
+      <c r="D81" t="s">
+        <v>237</v>
       </c>
       <c r="E81" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F81" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3136,16 +3211,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D82" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="E82" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F82" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3156,16 +3231,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F83" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3176,16 +3251,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D84" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="E84" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F84" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3196,16 +3271,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D85" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="E85" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F85" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3216,16 +3291,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="E86" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F86" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3236,16 +3308,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D87" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E87" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F87" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3256,16 +3328,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="E88" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F88" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3276,16 +3348,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D89" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="E89" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F89" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3296,16 +3368,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="E90" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F90" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3316,16 +3388,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D91" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E91" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F91" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3336,16 +3408,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D92" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="E92" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F92" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3356,16 +3428,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D93" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F93" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3376,16 +3448,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D94" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E94" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F94" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3396,16 +3468,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D95" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F95" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3416,16 +3488,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D96" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="E96" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F96" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3436,16 +3508,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D97" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="E97" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F97" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3456,16 +3528,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D98" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E98" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F98" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3476,16 +3548,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D99" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="E99" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F99" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3496,16 +3568,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D100" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F100" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3516,16 +3588,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D101" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="E101" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F101" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3536,16 +3608,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D102" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E102" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F102" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3556,16 +3628,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D103" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E103" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F103" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3576,16 +3648,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D104" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="E104" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F104" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3596,16 +3668,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D105" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E105" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F105" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3616,16 +3688,116 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E106" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F106" t="s">
-        <v>379</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" t="s">
+        <v>288</v>
+      </c>
+      <c r="E107" t="s">
+        <v>292</v>
+      </c>
+      <c r="F107" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" t="s">
+        <v>289</v>
+      </c>
+      <c r="E108" t="s">
+        <v>292</v>
+      </c>
+      <c r="F108" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" t="s">
+        <v>264</v>
+      </c>
+      <c r="E109" t="s">
+        <v>292</v>
+      </c>
+      <c r="F109" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110" t="s">
+        <v>290</v>
+      </c>
+      <c r="E110" t="s">
+        <v>293</v>
+      </c>
+      <c r="F110" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" t="s">
+        <v>224</v>
+      </c>
+      <c r="D111" t="s">
+        <v>291</v>
+      </c>
+      <c r="E111" t="s">
+        <v>292</v>
+      </c>
+      <c r="F111" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/Results/AMBIENCE.xlsx
+++ b/Results/AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="406">
   <si>
     <t>id</t>
   </si>
@@ -142,6 +142,9 @@
     <t>1413697:2</t>
   </si>
   <si>
+    <t>1417496:0</t>
+  </si>
+  <si>
     <t>1417496:2</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
     <t>1486041:0</t>
   </si>
   <si>
+    <t>1486041:1</t>
+  </si>
+  <si>
     <t>1506491:2</t>
   </si>
   <si>
@@ -217,9 +223,6 @@
     <t>445960:4</t>
   </si>
   <si>
-    <t>475298:3</t>
-  </si>
-  <si>
     <t>475512:2</t>
   </si>
   <si>
@@ -262,9 +265,6 @@
     <t>535171:1</t>
   </si>
   <si>
-    <t>541532:0</t>
-  </si>
-  <si>
     <t>561054:1</t>
   </si>
   <si>
@@ -346,6 +346,9 @@
     <t>Z#5:4</t>
   </si>
   <si>
+    <t>TM#5:4</t>
+  </si>
+  <si>
     <t>TVU#6:5</t>
   </si>
   <si>
@@ -472,6 +475,9 @@
     <t>the place is so cool and the service is prompt and curtious.</t>
   </si>
   <si>
+    <t>a restaurant that doesn't try to do anything except serve great food with great service in a pleasant atmosphere.</t>
+  </si>
+  <si>
     <t>the dining room is quietly elegant with no music to shout over -- how refreshing!</t>
   </si>
   <si>
@@ -496,6 +502,9 @@
     <t>the atmosphere is nothing special, but it feels like a sushi establishment in tokyo.</t>
   </si>
   <si>
+    <t>the owner and staff are all japanese as well and that adds to the entire ambiance.</t>
+  </si>
+  <si>
     <t>check out the secret back room.</t>
   </si>
   <si>
@@ -547,9 +556,6 @@
     <t>this is a great place to take out-of-towners, and perfect for watching the sunset.</t>
   </si>
   <si>
-    <t>the location is perfect.</t>
-  </si>
-  <si>
     <t>well, this place is so ghetto its not even funny.</t>
   </si>
   <si>
@@ -592,9 +598,6 @@
     <t>not the typical nyc gimmick theme restaurant.</t>
   </si>
   <si>
-    <t>cozy romantic atomosphere with only around 15 tables at most.</t>
-  </si>
-  <si>
     <t>when you're sitting in their main dining room (which has a spectacular, hand-painted high ceiling) you'd never know there was a world outside.</t>
   </si>
   <si>
@@ -676,6 +679,9 @@
     <t>the atmosphere was pretty nice but had a bit lacking, which it tries to make up for with a crazy scheme of mirrors.</t>
   </si>
   <si>
+    <t>the only thing that strikes you is the decor?(not very pleasant).</t>
+  </si>
+  <si>
     <t>the dj is awesome, i have been there for my birthday and a bunch of other times with friends and i keep going back.</t>
   </si>
   <si>
@@ -772,6 +778,9 @@
     <t>romantic</t>
   </si>
   <si>
+    <t>pleasant</t>
+  </si>
+  <si>
     <t>refreshing</t>
   </si>
   <si>
@@ -784,6 +793,9 @@
     <t>enjoyable</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>check</t>
   </si>
   <si>
@@ -796,12 +808,6 @@
     <t>charming</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>pleasant</t>
-  </si>
-  <si>
     <t>unattractive</t>
   </si>
   <si>
@@ -811,63 +817,60 @@
     <t>beautiful</t>
   </si>
   <si>
+    <t>blasted</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>delightfully</t>
+  </si>
+  <si>
+    <t>reasonable</t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>gimmick</t>
+  </si>
+  <si>
+    <t>spectacular</t>
+  </si>
+  <si>
+    <t>italian</t>
+  </si>
+  <si>
+    <t>attractive</t>
+  </si>
+  <si>
+    <t>delight</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>ghetto</t>
-  </si>
-  <si>
-    <t>blasted</t>
-  </si>
-  <si>
-    <t>quiet</t>
-  </si>
-  <si>
-    <t>delightfully</t>
-  </si>
-  <si>
-    <t>reasonable</t>
-  </si>
-  <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>gimmick</t>
-  </si>
-  <si>
-    <t>spectacular</t>
-  </si>
-  <si>
-    <t>italian</t>
-  </si>
-  <si>
-    <t>attractive</t>
-  </si>
-  <si>
-    <t>delight</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>sweet</t>
-  </si>
-  <si>
     <t>captivated</t>
   </si>
   <si>
@@ -1009,6 +1012,9 @@
     <t>['place', 'cool', 'service', 'prompt', 'curtious']</t>
   </si>
   <si>
+    <t>['restaurant', 'try', 'anything', 'except', 'serve', 'great', 'food', 'great', 'service', 'pleasant', 'atmosphere']</t>
+  </si>
+  <si>
     <t>['dining', 'room', 'quietly', 'elegant', 'music', 'shout', 'refreshing']</t>
   </si>
   <si>
@@ -1033,6 +1039,9 @@
     <t>['atmosphere', 'nothing', 'special', 'feel', 'like', 'sushi', 'establishment', 'tokyo']</t>
   </si>
   <si>
+    <t>['owner', 'staff', 'japanese', 'well', 'add', 'entire', 'ambiance']</t>
+  </si>
+  <si>
     <t>['check', 'secret', 'back', 'room']</t>
   </si>
   <si>
@@ -1084,9 +1093,6 @@
     <t>['great', 'place', 'take', 'outoftowners', 'perfect', 'watching', 'sunset']</t>
   </si>
   <si>
-    <t>['location', 'perfect']</t>
-  </si>
-  <si>
     <t>['well', 'place', 'ghetto', 'even', 'funny']</t>
   </si>
   <si>
@@ -1129,9 +1135,6 @@
     <t>['typical', 'nyc', 'gimmick', 'theme', 'restaurant']</t>
   </si>
   <si>
-    <t>['cozy', 'romantic', 'atomosphere', 'around', '', 'table']</t>
-  </si>
-  <si>
     <t>['sitting', 'main', 'dining', 'room', 'spectacular', 'handpainted', 'high', 'ceiling', 'never', 'know', 'world', 'outside']</t>
   </si>
   <si>
@@ -1211,6 +1214,9 @@
   </si>
   <si>
     <t>['atmosphere', 'pretty', 'nice', 'bit', 'lacking', 'try', 'make', 'crazy', 'scheme', 'mirror']</t>
+  </si>
+  <si>
+    <t>['thing', 'strike', 'decornot', 'pleasant']</t>
   </si>
   <si>
     <t>['dj', 'awesome', 'birthday', 'bunch', 'time', 'friend', 'keep', 'going', 'back']</t>
@@ -1583,7 +1589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1614,16 +1620,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1634,16 +1640,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1654,16 +1660,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1674,16 +1680,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1694,16 +1700,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1714,16 +1720,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1734,16 +1740,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1754,16 +1760,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1774,16 +1780,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1794,16 +1800,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1814,16 +1820,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1834,16 +1840,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1854,16 +1860,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1874,16 +1880,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1894,16 +1900,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1914,16 +1920,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1934,16 +1940,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1954,16 +1960,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1974,16 +1980,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1994,16 +2000,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2014,16 +2020,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2034,16 +2040,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2054,16 +2060,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2074,16 +2080,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2094,16 +2100,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2114,16 +2120,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2134,16 +2140,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2154,16 +2160,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2174,16 +2180,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2194,16 +2200,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2214,16 +2220,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2234,16 +2240,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2254,16 +2260,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F34" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2274,16 +2280,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2294,16 +2300,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2314,16 +2320,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2334,16 +2340,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2354,16 +2360,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2374,16 +2380,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E40" t="s">
         <v>293</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2394,16 +2400,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F41" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2414,16 +2420,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2434,16 +2440,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D43" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F43" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2454,13 +2460,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>258</v>
       </c>
       <c r="E44" t="s">
         <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2471,16 +2480,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" t="s">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F45" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2491,16 +2497,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2511,16 +2517,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2531,16 +2537,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2551,16 +2557,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2571,16 +2577,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
         <v>293</v>
       </c>
       <c r="F50" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2591,16 +2597,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="E51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F51" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2611,16 +2617,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F52" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2631,16 +2637,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F53" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2651,16 +2657,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="E54" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F54" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2671,16 +2677,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F55" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2691,16 +2697,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E56" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2711,16 +2717,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="E57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F57" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2731,16 +2737,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="E58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2751,16 +2757,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2771,16 +2777,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E60" t="s">
         <v>293</v>
       </c>
       <c r="F60" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2791,16 +2797,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F61" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2811,16 +2817,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
         <v>264</v>
       </c>
       <c r="E62" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2831,16 +2837,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="E63" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2851,16 +2857,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E64" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F64" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2871,16 +2877,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s">
         <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2891,16 +2897,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F66" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2911,16 +2917,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E67" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F67" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2931,16 +2937,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F68" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2951,16 +2957,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="E69" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F69" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2971,16 +2977,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="E70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F70" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2991,16 +2997,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="E71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F71" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3011,16 +3017,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F72" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3031,16 +3037,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D73" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E73" t="s">
         <v>293</v>
       </c>
       <c r="F73" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3051,16 +3057,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D74" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="E74" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F74" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3071,16 +3077,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F75" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3091,16 +3097,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F76" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3111,16 +3117,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E77" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F77" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3131,16 +3137,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D78" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F78" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3151,16 +3157,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="E79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F79" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3171,16 +3177,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D80" t="s">
         <v>273</v>
       </c>
       <c r="E80" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F80" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3191,16 +3197,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D81" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3211,16 +3217,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D82" t="s">
         <v>274</v>
       </c>
       <c r="E82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F82" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3231,16 +3237,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D83" t="s">
         <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F83" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3251,16 +3257,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D84" t="s">
         <v>276</v>
       </c>
       <c r="E84" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F84" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3271,16 +3277,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D85" t="s">
         <v>277</v>
       </c>
       <c r="E85" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F85" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3291,13 +3297,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E86" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F86" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3308,16 +3314,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F87" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3328,16 +3334,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D88" t="s">
         <v>278</v>
       </c>
       <c r="E88" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F88" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3348,16 +3354,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D89" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E89" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F89" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3368,16 +3374,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E90" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F90" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3388,16 +3394,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F91" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3408,16 +3414,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
         <v>279</v>
       </c>
       <c r="E92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F92" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3428,16 +3434,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E93" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F93" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3448,16 +3454,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D94" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E94" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F94" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3468,16 +3474,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D95" t="s">
         <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F95" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3488,16 +3494,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D96" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F96" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3508,16 +3514,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D97" t="s">
         <v>281</v>
       </c>
       <c r="E97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F97" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3528,16 +3534,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F98" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3548,16 +3554,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D99" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F99" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3568,16 +3574,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D100" t="s">
         <v>282</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3588,16 +3594,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D101" t="s">
         <v>283</v>
       </c>
       <c r="E101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F101" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3608,16 +3614,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D102" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="E102" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3628,16 +3634,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D103" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E103" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F103" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3648,16 +3654,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D104" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E104" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F104" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3668,16 +3674,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E105" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F105" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3688,16 +3694,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D106" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E106" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F106" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3708,16 +3714,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D107" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="E107" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F107" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3728,16 +3734,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D108" t="s">
         <v>289</v>
       </c>
       <c r="E108" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F108" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3748,16 +3754,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D109" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="E109" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F109" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3768,16 +3774,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D110" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="E110" t="s">
         <v>293</v>
       </c>
       <c r="F110" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3788,16 +3794,36 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D111" t="s">
         <v>291</v>
       </c>
       <c r="E111" t="s">
+        <v>294</v>
+      </c>
+      <c r="F111" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>226</v>
+      </c>
+      <c r="D112" t="s">
         <v>292</v>
       </c>
-      <c r="F111" t="s">
-        <v>403</v>
+      <c r="E112" t="s">
+        <v>293</v>
+      </c>
+      <c r="F112" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/Results/AMBIENCE.xlsx
+++ b/Results/AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="422">
   <si>
     <t>id</t>
   </si>
@@ -697,202 +697,250 @@
     <t>gorgeous place ideal for a romantic dinner</t>
   </si>
   <si>
-    <t>perfection</t>
-  </si>
-  <si>
-    <t>vent</t>
+    <t>excellent|excellent|excellent</t>
+  </si>
+  <si>
+    <t>sleek|sleek|un</t>
+  </si>
+  <si>
+    <t>nice|casual|nice</t>
+  </si>
+  <si>
+    <t>|||</t>
+  </si>
+  <si>
+    <t>parisian|parisian</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>lively</t>
+  </si>
+  <si>
+    <t>great|excellent</t>
+  </si>
+  <si>
+    <t>magnificent</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>great|great|great|great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cozy</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>vibrant|great</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>hidden|hidden</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>cute|good|good</t>
+  </si>
+  <si>
+    <t>noisy</t>
+  </si>
+  <si>
+    <t>lovely</t>
+  </si>
+  <si>
+    <t>simple|bustling</t>
+  </si>
+  <si>
+    <t>cozy|nice</t>
+  </si>
+  <si>
+    <t>nice|nice</t>
+  </si>
+  <si>
+    <t>delightful</t>
+  </si>
+  <si>
+    <t>horrible|great</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>dark|dark</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>good|good</t>
+  </si>
+  <si>
+    <t>excellent|excellent</t>
+  </si>
+  <si>
+    <t>romantic|romantic</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>pleasant</t>
+  </si>
+  <si>
+    <t>refreshing</t>
+  </si>
+  <si>
+    <t>small|little|excellent|great</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>enjoyable|enjoyable</t>
+  </si>
+  <si>
+    <t>nice|nice|great</t>
+  </si>
+  <si>
+    <t>special|special|special|special|special</t>
+  </si>
+  <si>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>nice|nice|nice</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>uncomfortable|wooden|wooden</t>
+  </si>
+  <si>
+    <t>great|great</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>charming</t>
+  </si>
+  <si>
+    <t>worth|cool|back</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>loud|nice</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>peaceful</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>funny|funny</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>delish|delish|delish|delish</t>
+  </si>
+  <si>
+    <t>reasonable|good</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>dim|typical</t>
+  </si>
+  <si>
+    <t>little|interior</t>
+  </si>
+  <si>
+    <t>excellent|correct|correct|excellent|excellent</t>
+  </si>
+  <si>
+    <t>confortable|perfecttheyre|confortable|perfecttheyre|romantic|great</t>
+  </si>
+  <si>
+    <t>typical</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>italian</t>
+  </si>
+  <si>
+    <t>attractive|attractive</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>fabulous|sohovillageupper|fabulous|sohovillageupper|fabulous|trendy|sohovillageupper|trendy|sohovillageupper|trendy</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>miraculously</t>
-  </si>
-  <si>
-    <t>cozy</t>
-  </si>
-  <si>
-    <t>lively</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>magnificent</t>
-  </si>
-  <si>
-    <t>cramped</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>quaint</t>
-  </si>
-  <si>
-    <t>noisy</t>
-  </si>
-  <si>
-    <t>lovely</t>
-  </si>
-  <si>
-    <t>efficiently</t>
-  </si>
-  <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>pleasant</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>crowded</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>charming</t>
-  </si>
-  <si>
-    <t>unattractive</t>
-  </si>
-  <si>
-    <t>peaceful</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>blasted</t>
-  </si>
-  <si>
-    <t>quiet</t>
-  </si>
-  <si>
-    <t>delightfully</t>
-  </si>
-  <si>
-    <t>reasonable</t>
-  </si>
-  <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>gimmick</t>
-  </si>
-  <si>
-    <t>spectacular</t>
-  </si>
-  <si>
-    <t>italian</t>
-  </si>
-  <si>
-    <t>attractive</t>
-  </si>
-  <si>
-    <t>delight</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>warm|warm</t>
+  </si>
+  <si>
+    <t>back|nice|nice</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>sweet</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>captivated</t>
-  </si>
-  <si>
-    <t>relaxed</t>
-  </si>
-  <si>
-    <t>mazing</t>
-  </si>
-  <si>
-    <t>lacking</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>crazy|nice|nice</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>classy</t>
   </si>
   <si>
-    <t>upscale</t>
-  </si>
-  <si>
-    <t>ideal</t>
+    <t>upscale|upscale</t>
+  </si>
+  <si>
+    <t>gorgeous</t>
   </si>
   <si>
     <t>positive</t>
@@ -1626,10 +1674,10 @@
         <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1646,10 +1694,10 @@
         <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1666,10 +1714,10 @@
         <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F4" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1686,10 +1734,10 @@
         <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1706,10 +1754,10 @@
         <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F6" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1726,10 +1774,10 @@
         <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1746,10 +1794,10 @@
         <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1766,10 +1814,10 @@
         <v>234</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1786,10 +1834,10 @@
         <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1806,10 +1854,10 @@
         <v>236</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1822,14 +1870,11 @@
       <c r="C12" t="s">
         <v>126</v>
       </c>
-      <c r="D12" t="s">
-        <v>237</v>
-      </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F12" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1843,13 +1888,13 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F13" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1863,13 +1908,13 @@
         <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F14" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1883,13 +1928,13 @@
         <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F15" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1902,14 +1947,11 @@
       <c r="C16" t="s">
         <v>130</v>
       </c>
-      <c r="D16" t="s">
-        <v>240</v>
-      </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F16" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1923,13 +1965,13 @@
         <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F17" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1943,13 +1985,13 @@
         <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F18" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1963,13 +2005,13 @@
         <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F19" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1983,13 +2025,13 @@
         <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F20" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2006,10 +2048,10 @@
         <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F21" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2026,10 +2068,10 @@
         <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F22" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2046,10 +2088,10 @@
         <v>246</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F23" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2066,10 +2108,10 @@
         <v>247</v>
       </c>
       <c r="E24" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2086,10 +2128,10 @@
         <v>248</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2106,10 +2148,10 @@
         <v>249</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2123,13 +2165,13 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F27" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2143,13 +2185,13 @@
         <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F28" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2163,13 +2205,13 @@
         <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F29" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2183,13 +2225,13 @@
         <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E30" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2203,13 +2245,13 @@
         <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F31" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2223,13 +2265,13 @@
         <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F32" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2243,13 +2285,13 @@
         <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F33" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2263,13 +2305,13 @@
         <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2283,13 +2325,13 @@
         <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F35" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2303,13 +2345,13 @@
         <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E36" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F36" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2323,13 +2365,13 @@
         <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2343,13 +2385,13 @@
         <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E38" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F38" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2363,13 +2405,13 @@
         <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2383,13 +2425,13 @@
         <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E40" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F40" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2403,13 +2445,13 @@
         <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F41" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2423,13 +2465,13 @@
         <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2442,14 +2484,11 @@
       <c r="C43" t="s">
         <v>157</v>
       </c>
-      <c r="D43" t="s">
-        <v>257</v>
-      </c>
       <c r="E43" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F43" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2463,13 +2502,13 @@
         <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F44" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2482,11 +2521,14 @@
       <c r="C45" t="s">
         <v>159</v>
       </c>
+      <c r="D45" t="s">
+        <v>245</v>
+      </c>
       <c r="E45" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F45" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2500,13 +2542,13 @@
         <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F46" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2520,13 +2562,13 @@
         <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F47" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2540,13 +2582,13 @@
         <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F48" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2559,14 +2601,11 @@
       <c r="C49" t="s">
         <v>163</v>
       </c>
-      <c r="D49" t="s">
-        <v>260</v>
-      </c>
       <c r="E49" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F49" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2580,13 +2619,13 @@
         <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="E50" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F50" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2600,13 +2639,13 @@
         <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E51" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F51" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2620,13 +2659,13 @@
         <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E52" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F52" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2640,13 +2679,13 @@
         <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E53" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F53" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2660,13 +2699,13 @@
         <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="E54" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F54" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2680,13 +2719,13 @@
         <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="E55" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F55" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2700,13 +2739,13 @@
         <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2720,13 +2759,13 @@
         <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F57" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2740,13 +2779,13 @@
         <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F58" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2760,13 +2799,13 @@
         <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E59" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F59" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2780,13 +2819,13 @@
         <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="E60" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F60" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2800,13 +2839,13 @@
         <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="E61" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F61" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2820,13 +2859,13 @@
         <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="E62" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F62" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2840,13 +2879,13 @@
         <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="E63" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F63" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2860,13 +2899,13 @@
         <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E64" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F64" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2880,13 +2919,13 @@
         <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="E65" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F65" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2900,13 +2939,13 @@
         <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="E66" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F66" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2920,13 +2959,13 @@
         <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F67" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2940,13 +2979,13 @@
         <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="E68" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F68" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2960,13 +2999,13 @@
         <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F69" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2980,13 +3019,13 @@
         <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="E70" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F70" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3000,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="E71" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F71" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3020,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="E72" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F72" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3040,13 +3079,13 @@
         <v>187</v>
       </c>
       <c r="D73" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="E73" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F73" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3060,13 +3099,13 @@
         <v>188</v>
       </c>
       <c r="D74" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="E74" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F74" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3080,13 +3119,13 @@
         <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F75" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3100,13 +3139,13 @@
         <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="E76" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F76" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3120,13 +3159,13 @@
         <v>191</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="E77" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F77" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3140,13 +3179,13 @@
         <v>192</v>
       </c>
       <c r="D78" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F78" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3160,13 +3199,13 @@
         <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F79" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3180,13 +3219,13 @@
         <v>194</v>
       </c>
       <c r="D80" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="E80" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F80" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3200,13 +3239,13 @@
         <v>195</v>
       </c>
       <c r="D81" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E81" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F81" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3220,13 +3259,13 @@
         <v>196</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="E82" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F82" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3240,13 +3279,13 @@
         <v>197</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="E83" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F83" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3260,13 +3299,13 @@
         <v>198</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="E84" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F84" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3280,13 +3319,13 @@
         <v>199</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="E85" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F85" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3300,10 +3339,10 @@
         <v>200</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3317,13 +3356,13 @@
         <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F87" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3337,13 +3376,13 @@
         <v>202</v>
       </c>
       <c r="D88" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F88" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3357,13 +3396,13 @@
         <v>203</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="E89" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F89" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3377,13 +3416,13 @@
         <v>204</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F90" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3397,13 +3436,13 @@
         <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E91" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F91" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3417,13 +3456,13 @@
         <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="E92" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F92" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3437,13 +3476,13 @@
         <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E93" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F93" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3457,13 +3496,13 @@
         <v>208</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="E94" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F94" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3477,13 +3516,13 @@
         <v>209</v>
       </c>
       <c r="D95" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="E95" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F95" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3497,13 +3536,13 @@
         <v>210</v>
       </c>
       <c r="D96" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="E96" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F96" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3517,13 +3556,13 @@
         <v>211</v>
       </c>
       <c r="D97" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="E97" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F97" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3537,13 +3576,13 @@
         <v>212</v>
       </c>
       <c r="D98" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E98" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F98" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3557,13 +3596,13 @@
         <v>213</v>
       </c>
       <c r="D99" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="E99" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F99" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3577,13 +3616,13 @@
         <v>214</v>
       </c>
       <c r="D100" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="E100" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F100" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3597,13 +3636,13 @@
         <v>215</v>
       </c>
       <c r="D101" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="E101" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F101" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3617,13 +3656,13 @@
         <v>216</v>
       </c>
       <c r="D102" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="E102" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F102" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3636,14 +3675,11 @@
       <c r="C103" t="s">
         <v>217</v>
       </c>
-      <c r="D103" t="s">
-        <v>285</v>
-      </c>
       <c r="E103" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F103" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3657,13 +3693,13 @@
         <v>218</v>
       </c>
       <c r="D104" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="E104" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F104" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3676,14 +3712,11 @@
       <c r="C105" t="s">
         <v>219</v>
       </c>
-      <c r="D105" t="s">
-        <v>287</v>
-      </c>
       <c r="E105" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F105" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3697,13 +3730,13 @@
         <v>220</v>
       </c>
       <c r="D106" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="E106" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F106" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3717,13 +3750,13 @@
         <v>221</v>
       </c>
       <c r="D107" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="E107" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F107" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3737,13 +3770,13 @@
         <v>222</v>
       </c>
       <c r="D108" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="E108" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F108" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3757,13 +3790,13 @@
         <v>223</v>
       </c>
       <c r="D109" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="E109" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F109" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3777,13 +3810,13 @@
         <v>224</v>
       </c>
       <c r="D110" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E110" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F110" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3797,13 +3830,13 @@
         <v>225</v>
       </c>
       <c r="D111" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="E111" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F111" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3817,13 +3850,13 @@
         <v>226</v>
       </c>
       <c r="D112" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="E112" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F112" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/Results/AMBIENCE.xlsx
+++ b/Results/AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="403">
   <si>
     <t>id</t>
   </si>
@@ -88,7 +88,7 @@
     <t>1289424:4</t>
   </si>
   <si>
-    <t>1300636:4</t>
+    <t>1308557:1</t>
   </si>
   <si>
     <t>1335154:4</t>
@@ -112,9 +112,6 @@
     <t>1357554:4</t>
   </si>
   <si>
-    <t>1367358:3</t>
-  </si>
-  <si>
     <t>1380450:2</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>1390357:2</t>
   </si>
   <si>
-    <t>1394712:0</t>
-  </si>
-  <si>
     <t>1394712:4</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>1615322:4</t>
   </si>
   <si>
-    <t>1632445:3</t>
-  </si>
-  <si>
     <t>1655521:1</t>
   </si>
   <si>
@@ -196,9 +187,6 @@
     <t>1661043:4</t>
   </si>
   <si>
-    <t>1661757:2</t>
-  </si>
-  <si>
     <t>1706644:4</t>
   </si>
   <si>
@@ -223,6 +211,9 @@
     <t>445960:4</t>
   </si>
   <si>
+    <t>475298:3</t>
+  </si>
+  <si>
     <t>475512:2</t>
   </si>
   <si>
@@ -265,6 +256,9 @@
     <t>535171:1</t>
   </si>
   <si>
+    <t>541532:0</t>
+  </si>
+  <si>
     <t>561054:1</t>
   </si>
   <si>
@@ -346,12 +340,6 @@
     <t>Z#5:4</t>
   </si>
   <si>
-    <t>TM#5:4</t>
-  </si>
-  <si>
-    <t>TVU#6:5</t>
-  </si>
-  <si>
     <t>TFS#5:8</t>
   </si>
   <si>
@@ -421,7 +409,7 @@
     <t>the place's decor and hidden bathrooms made for a good laugh.</t>
   </si>
   <si>
-    <t>i highly recommend cafe st. bart's for their food, the ambience and wonderful service.</t>
+    <t>it's boring on the inside, and our sushi was pretty below average... the tuna was soggy and the other rolls had no flavor.</t>
   </si>
   <si>
     <t>i didn't complain, i liked the atmosphere so much.</t>
@@ -445,9 +433,6 @@
     <t>it's a nice place to relax and have conversation.</t>
   </si>
   <si>
-    <t>ambience is delightful, service impeccable.</t>
-  </si>
-  <si>
     <t>service was also horrible and the ambience is not that great.</t>
   </si>
   <si>
@@ -457,9 +442,6 @@
     <t>i like the ambience, it's very dark and original.</t>
   </si>
   <si>
-    <t>very affordable and excellent ambient!</t>
-  </si>
-  <si>
     <t>however, i think this place is a good hang out spot.</t>
   </si>
   <si>
@@ -517,9 +499,6 @@
     <t>the seats are uncomfortable if you are sitting against the wall on wooden benches.</t>
   </si>
   <si>
-    <t>the service is good and ambience is good for a date or group outing.</t>
-  </si>
-  <si>
     <t>i almost hesititate to write a review because the atmosphere was so great and i would hate for it too become to crowded.</t>
   </si>
   <si>
@@ -529,9 +508,6 @@
     <t>decor is charming.</t>
   </si>
   <si>
-    <t>the ambience was so fun, and the prices were great, on top of the fact that the food was really tasty.</t>
-  </si>
-  <si>
     <t>we ate out in the back patio, which is worth it as it's cool and the music is hear well there.</t>
   </si>
   <si>
@@ -556,6 +532,9 @@
     <t>this is a great place to take out-of-towners, and perfect for watching the sunset.</t>
   </si>
   <si>
+    <t>the location is perfect.</t>
+  </si>
+  <si>
     <t>well, this place is so ghetto its not even funny.</t>
   </si>
   <si>
@@ -598,6 +577,9 @@
     <t>not the typical nyc gimmick theme restaurant.</t>
   </si>
   <si>
+    <t>cozy romantic atomosphere with only around 15 tables at most.</t>
+  </si>
+  <si>
     <t>when you're sitting in their main dining room (which has a spectacular, hand-painted high ceiling) you'd never know there was a world outside.</t>
   </si>
   <si>
@@ -679,12 +661,6 @@
     <t>the atmosphere was pretty nice but had a bit lacking, which it tries to make up for with a crazy scheme of mirrors.</t>
   </si>
   <si>
-    <t>the only thing that strikes you is the decor?(not very pleasant).</t>
-  </si>
-  <si>
-    <t>the dj is awesome, i have been there for my birthday and a bunch of other times with friends and i keep going back.</t>
-  </si>
-  <si>
     <t>yes, the place is classy and beautiful, but they most certainly target the uber whealthy not the common joe that wants to go all out every once in a while.</t>
   </si>
   <si>
@@ -697,247 +673,226 @@
     <t>gorgeous place ideal for a romantic dinner</t>
   </si>
   <si>
-    <t>excellent|excellent|excellent</t>
+    <t>excellent|excellent</t>
   </si>
   <si>
     <t>sleek|sleek|un</t>
   </si>
   <si>
-    <t>nice|casual|nice</t>
+    <t>nice|casual</t>
+  </si>
+  <si>
+    <t>||||||</t>
+  </si>
+  <si>
+    <t>parisian|parisian</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>lively</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>magnificent|magnificent</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>great|great|great|great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cozy</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>great|vibrant</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>hidden|hidden</t>
+  </si>
+  <si>
+    <t>soggy</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>good|good</t>
+  </si>
+  <si>
+    <t>noisy</t>
+  </si>
+  <si>
+    <t>lovely</t>
+  </si>
+  <si>
+    <t>simple|bustling</t>
+  </si>
+  <si>
+    <t>cozy|nice</t>
+  </si>
+  <si>
+    <t>nice|nice</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>pleasant</t>
+  </si>
+  <si>
+    <t>elegant</t>
+  </si>
+  <si>
+    <t>small|great</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>enjoyable|enjoyable</t>
+  </si>
+  <si>
+    <t>great|nice</t>
+  </si>
+  <si>
+    <t>special|special|special</t>
+  </si>
+  <si>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>nice|nice|nice</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>uncomfortable|wooden|wooden</t>
+  </si>
+  <si>
+    <t>great|great</t>
+  </si>
+  <si>
+    <t>charming</t>
+  </si>
+  <si>
+    <t>cool|worth</t>
+  </si>
+  <si>
+    <t>back|personal|pleasant|back|personal</t>
+  </si>
+  <si>
+    <t>nice|loud</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>peaceful</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>funny|funny|funny</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>delish|delish|delish|delish</t>
+  </si>
+  <si>
+    <t>good|reasonable</t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>typical|dim</t>
+  </si>
+  <si>
+    <t>little|interior</t>
+  </si>
+  <si>
+    <t>correct|excellent|excellent</t>
+  </si>
+  <si>
+    <t>confortable|perfecttheyre|confortable|perfecttheyre|great</t>
+  </si>
+  <si>
+    <t>typical</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>italian|italian|italian</t>
+  </si>
+  <si>
+    <t>attractive|attractive</t>
+  </si>
+  <si>
+    <t>outdoor|outdoor</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>trendy|fabulous|sohovillageupper|fabulous|sohovillageupper|fabulous</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>warm|warm</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>|||</t>
   </si>
   <si>
-    <t>parisian|parisian</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>lively</t>
-  </si>
-  <si>
-    <t>great|excellent</t>
-  </si>
-  <si>
-    <t>magnificent</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>great|great|great|great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>cozy</t>
-  </si>
-  <si>
-    <t>outdoor</t>
-  </si>
-  <si>
-    <t>vibrant|great</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>hidden|hidden</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>cute|good|good</t>
-  </si>
-  <si>
-    <t>noisy</t>
-  </si>
-  <si>
-    <t>lovely</t>
-  </si>
-  <si>
-    <t>simple|bustling</t>
-  </si>
-  <si>
-    <t>cozy|nice</t>
-  </si>
-  <si>
-    <t>nice|nice</t>
-  </si>
-  <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>horrible|great</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>dark|dark</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>good|good</t>
-  </si>
-  <si>
-    <t>excellent|excellent</t>
-  </si>
-  <si>
-    <t>romantic|romantic</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>pleasant</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>small|little|excellent|great</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>enjoyable|enjoyable</t>
-  </si>
-  <si>
-    <t>nice|nice|great</t>
-  </si>
-  <si>
-    <t>special|special|special|special|special</t>
-  </si>
-  <si>
-    <t>japanese</t>
-  </si>
-  <si>
-    <t>nice|nice|nice</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>uncomfortable|wooden|wooden</t>
-  </si>
-  <si>
-    <t>great|great</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>charming</t>
-  </si>
-  <si>
-    <t>worth|cool|back</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>loud|nice</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>peaceful</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>funny|funny</t>
-  </si>
-  <si>
-    <t>quiet</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>delish|delish|delish|delish</t>
-  </si>
-  <si>
-    <t>reasonable|good</t>
-  </si>
-  <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>dim|typical</t>
-  </si>
-  <si>
-    <t>little|interior</t>
-  </si>
-  <si>
-    <t>excellent|correct|correct|excellent|excellent</t>
-  </si>
-  <si>
-    <t>confortable|perfecttheyre|confortable|perfecttheyre|romantic|great</t>
-  </si>
-  <si>
-    <t>typical</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>italian</t>
-  </si>
-  <si>
-    <t>attractive|attractive</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>fabulous|sohovillageupper|fabulous|sohovillageupper|fabulous|trendy|sohovillageupper|trendy|sohovillageupper|trendy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>warm|warm</t>
-  </si>
-  <si>
-    <t>back|nice|nice</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>casual</t>
-  </si>
-  <si>
-    <t>crazy|nice|nice</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>nice|nice|crazy</t>
   </si>
   <si>
     <t>classy</t>
   </si>
   <si>
-    <t>upscale|upscale</t>
+    <t>upscale</t>
   </si>
   <si>
     <t>gorgeous</t>
@@ -1006,7 +961,7 @@
     <t>['place', 'decor', 'hidden', 'bathroom', 'made', 'good', 'laugh']</t>
   </si>
   <si>
-    <t>['highly', 'recommend', 'cafe', 'st', 'bart', 'food', 'ambience', 'wonderful', 'service']</t>
+    <t>['boring', 'inside', 'sushi', 'pretty', 'average', 'tuna', 'soggy', 'roll', 'flavor']</t>
   </si>
   <si>
     <t>['complain', 'liked', 'atmosphere', 'much']</t>
@@ -1030,9 +985,6 @@
     <t>['nice', 'place', 'relax', 'conversation']</t>
   </si>
   <si>
-    <t>['ambience', 'delightful', 'service', 'impeccable']</t>
-  </si>
-  <si>
     <t>['service', 'also', 'horrible', 'ambience', 'great']</t>
   </si>
   <si>
@@ -1042,9 +994,6 @@
     <t>['like', 'ambience', 'dark', 'original']</t>
   </si>
   <si>
-    <t>['affordable', 'excellent', 'ambient']</t>
-  </si>
-  <si>
     <t>['however', 'think', 'place', 'good', 'hang', 'spot']</t>
   </si>
   <si>
@@ -1102,9 +1051,6 @@
     <t>['seat', 'uncomfortable', 'sitting', 'wall', 'wooden', 'bench']</t>
   </si>
   <si>
-    <t>['service', 'good', 'ambience', 'good', 'date', 'group', 'outing']</t>
-  </si>
-  <si>
     <t>['almost', 'hesititate', 'write', 'review', 'atmosphere', 'great', 'would', 'hate', 'become', 'crowded']</t>
   </si>
   <si>
@@ -1114,9 +1060,6 @@
     <t>['decor', 'charming']</t>
   </si>
   <si>
-    <t>['ambience', 'fun', 'price', 'great', 'top', 'fact', 'food', 'really', 'tasty']</t>
-  </si>
-  <si>
     <t>['ate', 'back', 'patio', 'worth', 'cool', 'music', 'hear', 'well']</t>
   </si>
   <si>
@@ -1141,6 +1084,9 @@
     <t>['great', 'place', 'take', 'outoftowners', 'perfect', 'watching', 'sunset']</t>
   </si>
   <si>
+    <t>['location', 'perfect']</t>
+  </si>
+  <si>
     <t>['well', 'place', 'ghetto', 'even', 'funny']</t>
   </si>
   <si>
@@ -1183,6 +1129,9 @@
     <t>['typical', 'nyc', 'gimmick', 'theme', 'restaurant']</t>
   </si>
   <si>
+    <t>['cozy', 'romantic', 'atomosphere', 'around', '', 'table']</t>
+  </si>
+  <si>
     <t>['sitting', 'main', 'dining', 'room', 'spectacular', 'handpainted', 'high', 'ceiling', 'never', 'know', 'world', 'outside']</t>
   </si>
   <si>
@@ -1262,12 +1211,6 @@
   </si>
   <si>
     <t>['atmosphere', 'pretty', 'nice', 'bit', 'lacking', 'try', 'make', 'crazy', 'scheme', 'mirror']</t>
-  </si>
-  <si>
-    <t>['thing', 'strike', 'decornot', 'pleasant']</t>
-  </si>
-  <si>
-    <t>['dj', 'awesome', 'birthday', 'bunch', 'time', 'friend', 'keep', 'going', 'back']</t>
   </si>
   <si>
     <t>['yes', 'place', 'classy', 'beautiful', 'certainly', 'target', 'uber', 'whealthy', 'common', 'joe', 'want', 'go', 'every']</t>
@@ -1637,7 +1580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1668,16 +1611,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1688,16 +1631,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1708,16 +1651,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1728,16 +1671,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F5" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1748,16 +1691,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F6" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1768,16 +1711,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F7" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1788,16 +1731,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1808,16 +1751,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1828,16 +1771,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F10" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1848,16 +1791,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1868,13 +1811,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F12" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1885,16 +1828,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F13" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1905,16 +1848,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1925,16 +1868,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" t="s">
         <v>309</v>
-      </c>
-      <c r="F15" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1945,13 +1888,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1962,16 +1905,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E17" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F17" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1982,16 +1925,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F18" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2002,16 +1945,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E19" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F19" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2022,16 +1965,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E20" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F20" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2042,16 +1985,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E21" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F21" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2062,16 +2005,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F22" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2082,16 +2025,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E23" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F23" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2102,16 +2045,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E24" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F24" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2122,16 +2065,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E25" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F25" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2142,16 +2085,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F26" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2162,16 +2105,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F27" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2182,16 +2125,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F28" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2202,16 +2145,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F29" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2222,16 +2165,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E30" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F30" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2242,16 +2185,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E31" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F31" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2262,16 +2205,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E32" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F32" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2282,16 +2225,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E33" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F33" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2302,16 +2245,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E34" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F34" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2322,16 +2265,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F35" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2342,16 +2285,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F36" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2362,16 +2305,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F37" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2382,16 +2325,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E38" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F38" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2402,16 +2345,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E39" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2422,16 +2365,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E40" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F40" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2442,16 +2385,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" t="s">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F41" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2462,16 +2402,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E42" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F42" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2482,13 +2422,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="D43" t="s">
+        <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F43" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2499,16 +2442,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E44" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F44" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2519,16 +2462,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E45" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F45" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2539,16 +2482,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E46" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F46" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2559,16 +2502,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F47" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2579,16 +2522,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F48" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2599,13 +2542,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="D49" t="s">
+        <v>258</v>
       </c>
       <c r="E49" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F49" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2616,16 +2562,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E50" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F50" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2636,16 +2582,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E51" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F51" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2656,16 +2602,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="E52" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F52" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2676,16 +2622,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E53" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F53" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2696,16 +2642,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E54" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2716,16 +2662,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F55" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2736,16 +2682,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E56" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F56" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2756,16 +2702,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E57" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F57" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2776,16 +2722,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E58" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F58" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2796,16 +2742,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F59" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2816,16 +2762,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E60" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F60" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2836,16 +2782,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="E61" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2856,16 +2802,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E62" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2876,16 +2822,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E63" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F63" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2896,16 +2842,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E64" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F64" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2916,16 +2862,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E65" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F65" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2936,16 +2882,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E66" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F66" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2956,16 +2902,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
         <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F67" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2976,16 +2922,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F68" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2996,16 +2942,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F69" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3016,16 +2962,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F70" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3036,16 +2982,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F71" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3056,16 +3002,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F72" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3076,16 +3022,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E73" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F73" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3096,16 +3042,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D74" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E74" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F74" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3116,16 +3062,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D75" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E75" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F75" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3136,16 +3082,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D76" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E76" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F76" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3156,16 +3102,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D77" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E77" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F77" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3176,16 +3122,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s">
         <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F78" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3196,16 +3142,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="E79" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F79" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3216,16 +3162,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D80" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E80" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F80" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3236,16 +3182,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="E81" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F81" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3256,16 +3202,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D82" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E82" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F82" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3276,16 +3222,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D83" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E83" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F83" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3296,16 +3242,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D84" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E84" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F84" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3316,16 +3262,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D85" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="E85" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F85" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3336,13 +3282,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="D86" t="s">
+        <v>285</v>
       </c>
       <c r="E86" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F86" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3353,16 +3302,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="E87" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F87" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3373,16 +3322,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="E88" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F88" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3393,16 +3342,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="E89" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F89" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3413,16 +3362,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D90" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="E90" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F90" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3433,16 +3382,13 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
-      </c>
-      <c r="D91" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="E91" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F91" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3453,16 +3399,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="E92" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F92" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3473,16 +3419,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D93" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E93" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F93" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3493,16 +3439,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D94" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="E94" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F94" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3513,16 +3459,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="E95" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F95" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3533,16 +3479,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D96" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="E96" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F96" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3553,16 +3499,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E97" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F97" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3573,16 +3519,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D98" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E98" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F98" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3593,16 +3539,13 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
-      </c>
-      <c r="D99" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="E99" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F99" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3613,16 +3556,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D100" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="E100" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F100" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3633,16 +3576,13 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
-      </c>
-      <c r="D101" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="E101" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F101" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3653,16 +3593,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D102" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E102" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F102" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3673,13 +3613,13 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E103" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F103" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3690,16 +3630,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D104" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E104" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F104" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3710,13 +3650,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="D105" t="s">
+        <v>291</v>
       </c>
       <c r="E105" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F105" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3727,16 +3670,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D106" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="E106" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F106" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3747,16 +3690,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D107" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E107" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F107" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3767,96 +3710,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D108" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E108" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F108" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109" t="s">
-        <v>223</v>
-      </c>
-      <c r="D109" t="s">
-        <v>306</v>
-      </c>
-      <c r="E109" t="s">
-        <v>309</v>
-      </c>
-      <c r="F109" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" t="s">
-        <v>224</v>
-      </c>
-      <c r="D110" t="s">
-        <v>280</v>
-      </c>
-      <c r="E110" t="s">
-        <v>309</v>
-      </c>
-      <c r="F110" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>114</v>
-      </c>
-      <c r="C111" t="s">
-        <v>225</v>
-      </c>
-      <c r="D111" t="s">
-        <v>307</v>
-      </c>
-      <c r="E111" t="s">
-        <v>310</v>
-      </c>
-      <c r="F111" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" t="s">
-        <v>226</v>
-      </c>
-      <c r="D112" t="s">
-        <v>308</v>
-      </c>
-      <c r="E112" t="s">
-        <v>309</v>
-      </c>
-      <c r="F112" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
